--- a/settings/filter.xlsx
+++ b/settings/filter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t xml:space="preserve">Зарплата от</t>
+  </si>
+  <si>
+    <t xml:space="preserve">period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опубликованным за указанный период в днях</t>
   </si>
   <si>
     <t xml:space="preserve">Код с системе hh</t>
@@ -416,25 +422,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -454,48 +472,48 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -505,6 +523,20 @@
       </c>
       <c r="B4" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +561,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.07"/>
@@ -540,12 +572,12 @@
         <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1620</v>
@@ -553,7 +585,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1624</v>
@@ -561,7 +593,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1646</v>
@@ -569,7 +601,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1652</v>
@@ -577,7 +609,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1192</v>
@@ -585,7 +617,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1124</v>
@@ -593,7 +625,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1146</v>
@@ -601,7 +633,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1118</v>
@@ -609,7 +641,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1174</v>
@@ -617,7 +649,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1169</v>
@@ -625,7 +657,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1187</v>
@@ -633,7 +665,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1661</v>
@@ -641,7 +673,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1679</v>
@@ -649,7 +681,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1704</v>
@@ -657,7 +689,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2134</v>
@@ -665,7 +697,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1217</v>
@@ -673,7 +705,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1229</v>
@@ -681,7 +713,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1202</v>
@@ -689,7 +721,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1249</v>
@@ -697,7 +729,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1216</v>
@@ -705,7 +737,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1255</v>
@@ -713,7 +745,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -721,7 +753,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2019</v>
@@ -729,7 +761,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1932</v>
@@ -737,7 +769,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1941</v>
@@ -745,7 +777,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1943</v>
@@ -753,7 +785,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1946</v>
@@ -761,7 +793,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1948</v>
@@ -769,7 +801,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1960</v>
@@ -777,7 +809,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1975</v>
@@ -785,7 +817,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1982</v>
@@ -793,7 +825,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2155</v>
@@ -801,7 +833,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1008</v>
@@ -809,7 +841,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1020</v>
@@ -817,7 +849,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>145</v>
@@ -825,7 +857,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1061</v>
@@ -833,7 +865,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1985</v>
@@ -841,7 +873,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1051</v>
@@ -849,7 +881,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1090</v>
@@ -857,7 +889,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1077</v>
@@ -865,7 +897,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1041</v>
@@ -873,7 +905,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -881,7 +913,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1103</v>
@@ -889,7 +921,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1716</v>
@@ -897,7 +929,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1739</v>
@@ -905,7 +937,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1754</v>
@@ -913,7 +945,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1771</v>
@@ -921,7 +953,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1783</v>
@@ -929,7 +961,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1806</v>
@@ -937,7 +969,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1563</v>
@@ -945,7 +977,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1575</v>
@@ -953,7 +985,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1556</v>
@@ -961,7 +993,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1586</v>
@@ -969,7 +1001,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1596</v>
@@ -977,7 +1009,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1614</v>
@@ -985,7 +1017,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1308</v>
@@ -993,7 +1025,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1317</v>
@@ -1001,7 +1033,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1347</v>
@@ -1009,7 +1041,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1261</v>
@@ -1017,7 +1049,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1342</v>
@@ -1025,7 +1057,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1368</v>
@@ -1033,7 +1065,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1384</v>
@@ -1041,7 +1073,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1414</v>
@@ -1049,7 +1081,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1463</v>
@@ -1057,7 +1089,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>1471</v>
@@ -1065,7 +1097,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1438</v>
@@ -1073,7 +1105,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1422</v>
@@ -1081,7 +1113,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>1424</v>
@@ -1089,7 +1121,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1434</v>
@@ -1097,7 +1129,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1475</v>
@@ -1105,7 +1137,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1481</v>
@@ -1113,7 +1145,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>1500</v>
@@ -1121,7 +1153,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2173</v>
@@ -1129,7 +1161,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1817</v>
@@ -1137,7 +1169,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1828</v>
@@ -1145,7 +1177,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1844</v>
@@ -1153,7 +1185,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1859</v>
@@ -1161,7 +1193,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1880</v>
@@ -1169,7 +1201,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1890</v>
@@ -1177,7 +1209,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1898</v>
@@ -1185,7 +1217,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1905</v>
@@ -1193,7 +1225,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1913</v>
@@ -1201,7 +1233,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1505</v>
@@ -1209,7 +1241,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1511</v>
@@ -1217,7 +1249,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1553</v>
@@ -1225,7 +1257,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2114</v>
@@ -1233,7 +1265,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1530</v>
@@ -1241,7 +1273,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2209</v>

--- a/settings/filter.xlsx
+++ b/settings/filter.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">Наименование должности</t>
   </si>
   <si>
-    <t xml:space="preserve">Оператор call центра</t>
+    <t xml:space="preserve">Проектировщик интерфейсов</t>
   </si>
   <si>
     <t xml:space="preserve">area</t>
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Регион</t>
   </si>
   <si>
-    <t xml:space="preserve">Астраханская область, Волгоградская область</t>
+    <t xml:space="preserve">Республика Марий Эл</t>
   </si>
   <si>
     <t xml:space="preserve">salary_from</t>
@@ -62,10 +62,34 @@
     <t xml:space="preserve">Опубликованным за указанный период в днях</t>
   </si>
   <si>
+    <t xml:space="preserve">education_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Уровень образования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">higher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">schedule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">График работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullDay, shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_search_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус поиска работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active_search, looking_for_offers</t>
+  </si>
+  <si>
     <t xml:space="preserve">Код с системе hh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Марий Эл</t>
   </si>
   <si>
     <t xml:space="preserve">Республика Татарстан</t>
@@ -472,14 +496,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.37"/>
   </cols>
@@ -524,9 +549,6 @@
       <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>50000</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -537,6 +559,39 @@
       </c>
       <c r="C5" s="1" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -561,7 +616,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.07"/>
@@ -572,12 +627,12 @@
         <v>7</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1620</v>
@@ -585,7 +640,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1624</v>
@@ -593,7 +648,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1646</v>
@@ -601,7 +656,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1652</v>
@@ -609,7 +664,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1192</v>
@@ -617,7 +672,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1124</v>
@@ -625,7 +680,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1146</v>
@@ -633,7 +688,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1118</v>
@@ -641,7 +696,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1174</v>
@@ -649,7 +704,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1169</v>
@@ -657,7 +712,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1187</v>
@@ -665,7 +720,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1661</v>
@@ -673,7 +728,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1679</v>
@@ -681,7 +736,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1704</v>
@@ -689,7 +744,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>2134</v>
@@ -697,7 +752,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1217</v>
@@ -705,7 +760,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1229</v>
@@ -713,7 +768,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1202</v>
@@ -721,7 +776,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1249</v>
@@ -729,7 +784,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1216</v>
@@ -737,7 +792,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1255</v>
@@ -745,7 +800,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>1</v>
@@ -753,7 +808,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>2019</v>
@@ -761,7 +816,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1932</v>
@@ -769,7 +824,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1941</v>
@@ -777,7 +832,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1943</v>
@@ -785,7 +840,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1946</v>
@@ -793,7 +848,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1948</v>
@@ -801,7 +856,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1960</v>
@@ -809,7 +864,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1975</v>
@@ -817,7 +872,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1982</v>
@@ -825,7 +880,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>2155</v>
@@ -833,7 +888,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1008</v>
@@ -841,7 +896,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1020</v>
@@ -849,7 +904,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>145</v>
@@ -857,7 +912,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1061</v>
@@ -865,7 +920,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1985</v>
@@ -873,7 +928,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1051</v>
@@ -881,7 +936,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1090</v>
@@ -889,7 +944,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1077</v>
@@ -897,7 +952,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1041</v>
@@ -905,7 +960,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
@@ -913,7 +968,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1103</v>
@@ -921,7 +976,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>1716</v>
@@ -929,7 +984,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>1739</v>
@@ -937,7 +992,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1754</v>
@@ -945,7 +1000,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1771</v>
@@ -953,7 +1008,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1783</v>
@@ -961,7 +1016,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1806</v>
@@ -969,7 +1024,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1563</v>
@@ -977,7 +1032,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1575</v>
@@ -985,7 +1040,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1556</v>
@@ -993,7 +1048,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1586</v>
@@ -1001,7 +1056,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1596</v>
@@ -1009,7 +1064,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1614</v>
@@ -1017,7 +1072,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>1308</v>
@@ -1025,7 +1080,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>1317</v>
@@ -1033,7 +1088,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>1347</v>
@@ -1041,7 +1096,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>1261</v>
@@ -1049,7 +1104,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>1342</v>
@@ -1057,7 +1112,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1368</v>
@@ -1065,7 +1120,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1384</v>
@@ -1073,7 +1128,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>1414</v>
@@ -1081,7 +1136,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>1463</v>
@@ -1089,7 +1144,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>1471</v>
@@ -1097,7 +1152,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>1438</v>
@@ -1105,7 +1160,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>1422</v>
@@ -1113,7 +1168,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>1424</v>
@@ -1121,7 +1176,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>1434</v>
@@ -1129,7 +1184,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>1475</v>
@@ -1137,7 +1192,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>1481</v>
@@ -1145,7 +1200,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>1500</v>
@@ -1153,7 +1208,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>2173</v>
@@ -1161,7 +1216,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>1817</v>
@@ -1169,7 +1224,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>1828</v>
@@ -1177,7 +1232,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>1844</v>
@@ -1185,7 +1240,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>1859</v>
@@ -1193,7 +1248,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>1880</v>
@@ -1201,7 +1256,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>1890</v>
@@ -1209,7 +1264,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>1898</v>
@@ -1217,7 +1272,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>1905</v>
@@ -1225,7 +1280,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>1913</v>
@@ -1233,7 +1288,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>1505</v>
@@ -1241,7 +1296,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1511</v>
@@ -1249,7 +1304,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>1553</v>
@@ -1257,7 +1312,7 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>2114</v>
@@ -1265,7 +1320,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>1530</v>
@@ -1273,7 +1328,7 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>2209</v>

--- a/settings/filter.xlsx
+++ b/settings/filter.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Фильтры" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Коды регионов" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="118">
   <si>
     <t xml:space="preserve">Код</t>
   </si>
@@ -32,6 +32,9 @@
     <t xml:space="preserve">Значение</t>
   </si>
   <si>
+    <t xml:space="preserve">Комментарий</t>
+  </si>
+  <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t xml:space="preserve">Проектировщик интерфейсов</t>
   </si>
   <si>
+    <t xml:space="preserve">Поиск производится по резюме и навыкам</t>
+  </si>
+  <si>
     <t xml:space="preserve">area</t>
   </si>
   <si>
@@ -50,12 +56,36 @@
     <t xml:space="preserve">Республика Марий Эл</t>
   </si>
   <si>
+    <t xml:space="preserve">Доступные названия во вкладке ”Коды регионов” </t>
+  </si>
+  <si>
+    <t xml:space="preserve">job_search_status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Статус поиска работы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active_search, looking_for_offers</t>
+  </si>
+  <si>
     <t xml:space="preserve">salary_from</t>
   </si>
   <si>
     <t xml:space="preserve">Зарплата от</t>
   </si>
   <si>
+    <t xml:space="preserve">Нижняя граница желаемой заработной платы (ЗП).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">salary_to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зарплата до</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Верхняя граница желаемой заработной платы (ЗП).</t>
+  </si>
+  <si>
     <t xml:space="preserve">period</t>
   </si>
   <si>
@@ -80,16 +110,10 @@
     <t xml:space="preserve">fullDay, shift</t>
   </si>
   <si>
-    <t xml:space="preserve">job_search_status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Статус поиска работы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">active_search, looking_for_offers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Код с системе hh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Копировать название региона</t>
   </si>
   <si>
     <t xml:space="preserve">Республика Татарстан</t>
@@ -360,7 +384,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -383,9 +407,22 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -403,21 +440,46 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFDDE8CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDE8CB"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -446,12 +508,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -459,24 +525,72 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -488,6 +602,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDE8CB"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -496,103 +670,289 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="42.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="61.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="58.81"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="D3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="B4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="B6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
+      <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="11"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="11"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="11"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="11"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="11"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="11"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="15"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="15"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="11"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="11"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="11"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="11"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="11"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="11"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="15"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="11"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="11"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="15"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="11"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="11"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="11"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="15"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="15"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="15"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="15"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="15"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="11"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -610,727 +970,733 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B89"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="18" width="31.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="18" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="18" width="2.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="18" width="77.21"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="5" style="18" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>22</v>
+      <c r="A1" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="20" t="n">
         <v>1620</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="20" t="n">
         <v>1624</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="0" t="n">
+      <c r="A4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="20" t="n">
         <v>1646</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="20" t="n">
         <v>1652</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="0" t="n">
+      <c r="A6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="20" t="n">
         <v>1192</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="0" t="n">
+      <c r="A7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="20" t="n">
         <v>1124</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="0" t="n">
+      <c r="A8" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="20" t="n">
         <v>1146</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="0" t="n">
+      <c r="A9" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="20" t="n">
         <v>1118</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="20" t="n">
         <v>1174</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="0" t="n">
+      <c r="A11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="20" t="n">
         <v>1169</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="0" t="n">
+      <c r="A12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="20" t="n">
         <v>1187</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="0" t="n">
+      <c r="A13" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="20" t="n">
         <v>1661</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="0" t="n">
+      <c r="A14" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="20" t="n">
         <v>1679</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="20" t="n">
         <v>1704</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="0" t="n">
+      <c r="A16" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="20" t="n">
         <v>2134</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="0" t="n">
+      <c r="A17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="20" t="n">
         <v>1217</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="0" t="n">
+      <c r="A18" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="20" t="n">
         <v>1229</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="0" t="n">
+      <c r="A19" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="20" t="n">
         <v>1202</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="0" t="n">
+      <c r="A20" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="20" t="n">
         <v>1249</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="0" t="n">
+      <c r="A21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="20" t="n">
         <v>1216</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="0" t="n">
+      <c r="A22" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="20" t="n">
         <v>1255</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="0" t="n">
+      <c r="A23" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="20" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" s="0" t="n">
+      <c r="A24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="20" t="n">
         <v>2019</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="0" t="n">
+      <c r="A25" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="20" t="n">
         <v>1932</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="0" t="n">
+      <c r="A26" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="20" t="n">
         <v>1941</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="0" t="n">
+      <c r="A27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="20" t="n">
         <v>1943</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="0" t="n">
+      <c r="A28" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="20" t="n">
         <v>1946</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" s="0" t="n">
+      <c r="A29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="20" t="n">
         <v>1948</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="0" t="n">
+      <c r="A30" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="20" t="n">
         <v>1960</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B31" s="0" t="n">
+      <c r="A31" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="20" t="n">
         <v>1975</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="0" t="n">
+      <c r="A32" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="20" t="n">
         <v>1982</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="0" t="n">
+      <c r="A33" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="20" t="n">
         <v>2155</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="B34" s="0" t="n">
+      <c r="A34" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="20" t="n">
         <v>1008</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="0" t="n">
+      <c r="A35" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35" s="20" t="n">
         <v>1020</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="0" t="n">
+      <c r="A36" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36" s="20" t="n">
         <v>145</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="0" t="n">
+      <c r="A37" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="20" t="n">
         <v>1061</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="0" t="n">
+      <c r="A38" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="20" t="n">
         <v>1985</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="0" t="n">
+      <c r="A39" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="20" t="n">
         <v>1051</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="0" t="n">
+      <c r="A40" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="20" t="n">
         <v>1090</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="0" t="n">
+      <c r="A41" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="20" t="n">
         <v>1077</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="B42" s="0" t="n">
+      <c r="A42" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="20" t="n">
         <v>1041</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="0" t="n">
+      <c r="A43" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B44" s="0" t="n">
+      <c r="A44" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="20" t="n">
         <v>1103</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B45" s="0" t="n">
+      <c r="A45" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="20" t="n">
         <v>1716</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B46" s="0" t="n">
+      <c r="A46" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" s="20" t="n">
         <v>1739</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B47" s="0" t="n">
+      <c r="A47" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="20" t="n">
         <v>1754</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" s="0" t="n">
+      <c r="A48" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="20" t="n">
         <v>1771</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="0" t="n">
+      <c r="A49" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="20" t="n">
         <v>1783</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="0" t="n">
+      <c r="A50" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="20" t="n">
         <v>1806</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="0" t="n">
+      <c r="A51" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="20" t="n">
         <v>1563</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="0" t="n">
+      <c r="A52" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52" s="20" t="n">
         <v>1575</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="0" t="n">
+      <c r="A53" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="20" t="n">
         <v>1556</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" s="0" t="n">
+      <c r="A54" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B54" s="20" t="n">
         <v>1586</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" s="0" t="n">
+      <c r="A55" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="20" t="n">
         <v>1596</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B56" s="0" t="n">
+      <c r="A56" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B56" s="20" t="n">
         <v>1614</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="0" t="n">
+      <c r="A57" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57" s="20" t="n">
         <v>1308</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="B58" s="0" t="n">
+      <c r="A58" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="20" t="n">
         <v>1317</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" s="0" t="n">
+      <c r="A59" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59" s="20" t="n">
         <v>1347</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="B60" s="0" t="n">
+      <c r="A60" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="20" t="n">
         <v>1261</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="B61" s="0" t="n">
+      <c r="A61" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="20" t="n">
         <v>1342</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B62" s="0" t="n">
+      <c r="A62" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="20" t="n">
         <v>1368</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="B63" s="0" t="n">
+      <c r="A63" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B63" s="20" t="n">
         <v>1384</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="0" t="n">
+      <c r="A64" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="20" t="n">
         <v>1414</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="B65" s="0" t="n">
+      <c r="A65" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65" s="20" t="n">
         <v>1463</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="0" t="n">
+      <c r="A66" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66" s="20" t="n">
         <v>1471</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B67" s="0" t="n">
+      <c r="A67" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67" s="20" t="n">
         <v>1438</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="B68" s="0" t="n">
+      <c r="A68" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68" s="20" t="n">
         <v>1422</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B69" s="0" t="n">
+      <c r="A69" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69" s="20" t="n">
         <v>1424</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="B70" s="0" t="n">
+      <c r="A70" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70" s="20" t="n">
         <v>1434</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B71" s="0" t="n">
+      <c r="A71" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="20" t="n">
         <v>1475</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="B72" s="0" t="n">
+      <c r="A72" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" s="20" t="n">
         <v>1481</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="B73" s="0" t="n">
+      <c r="A73" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" s="20" t="n">
         <v>1500</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="B74" s="0" t="n">
+      <c r="A74" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="20" t="n">
         <v>2173</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B75" s="0" t="n">
+      <c r="A75" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" s="20" t="n">
         <v>1817</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B76" s="0" t="n">
+      <c r="A76" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76" s="20" t="n">
         <v>1828</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="0" t="n">
+      <c r="A77" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" s="20" t="n">
         <v>1844</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="0" t="n">
+      <c r="A78" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B78" s="20" t="n">
         <v>1859</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B79" s="0" t="n">
+      <c r="A79" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="20" t="n">
         <v>1880</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="0" t="n">
+      <c r="A80" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B80" s="20" t="n">
         <v>1890</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="0" t="n">
+      <c r="A81" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" s="20" t="n">
         <v>1898</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B82" s="0" t="n">
+      <c r="A82" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B82" s="20" t="n">
         <v>1905</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="B83" s="0" t="n">
+      <c r="A83" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83" s="20" t="n">
         <v>1913</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B84" s="0" t="n">
+      <c r="A84" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="B84" s="20" t="n">
         <v>1505</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B85" s="0" t="n">
+      <c r="A85" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B85" s="20" t="n">
         <v>1511</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B86" s="0" t="n">
+      <c r="A86" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B86" s="20" t="n">
         <v>1553</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B87" s="0" t="n">
+      <c r="A87" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="20" t="n">
         <v>2114</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B88" s="0" t="n">
+      <c r="A88" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" s="20" t="n">
         <v>1530</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" s="0" t="n">
+      <c r="A89" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" s="20" t="n">
         <v>2209</v>
       </c>
     </row>
